--- a/Домашние задания/4/К_ДЗ_4.xlsx
+++ b/Домашние задания/4/К_ДЗ_4.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dudko\Documents\ЭВМ\Домашние задания\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C64D338-01DB-473E-84D3-68A56B926525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B6542-03B7-44B6-A0BB-B2E3465DD4C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{13348C08-26CA-4E82-A307-61FCDBFE8595}"/>
+    <workbookView xWindow="6645" yWindow="750" windowWidth="21600" windowHeight="13125" activeTab="3" xr2:uid="{13348C08-26CA-4E82-A307-61FCDBFE8595}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Команда</t>
   </si>
@@ -66,6 +67,51 @@
   </si>
   <si>
     <t>838F</t>
+  </si>
+  <si>
+    <t>Двоичное число вертикальной команды</t>
+  </si>
+  <si>
+    <t>00 01 00 00 01 01 00 00</t>
+  </si>
+  <si>
+    <t>Строка без пробелов</t>
+  </si>
+  <si>
+    <t>10 11 01 11 11 01 00 10</t>
+  </si>
+  <si>
+    <t>01 00 00 00 00 00 0 100</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>01 00 00 00 10 0 0 0 000</t>
+  </si>
+  <si>
+    <t>IF BIT(9, РК) = 1</t>
+  </si>
+  <si>
+    <t>11 10 1001 1110 0100</t>
+  </si>
+  <si>
+    <t>IF BIT(8, РК) = 0</t>
+  </si>
+  <si>
+    <t>10 10 1000 1110 0100</t>
+  </si>
+  <si>
+    <t>01 00 0000 00 0 0 0 101</t>
   </si>
 </sst>
 </file>
@@ -187,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +281,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -549,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25B6FD0-47B8-4077-B5DA-298BECEBFFEF}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView zoomScale="197" workbookViewId="0">
-      <selection sqref="A1:AH1048576"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,132 +754,280 @@
         <v>45061</v>
       </c>
       <c r="C2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^C$1),C$1)</f>
+        <f t="shared" ref="C2:AH2" si="1">_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^C$1),C$1)</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^D$1),D$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^E$1),E$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^F$1),F$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^G$1),G$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^H$1),H$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^I$1),I$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^J$1),J$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^K$1),K$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^L$1),L$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^M$1),M$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^N$1),N$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^O$1),O$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^P$1),P$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^Q$1),Q$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^R$1),R$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S2" s="3">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^S$1),S$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T2" s="3">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^T$1),T$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U2" s="3">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^U$1),U$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V2" s="3">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^V$1),V$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^W$1),W$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^X$1),X$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^Y$1),Y$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^Z$1),Z$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA2" s="3">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^AA$1),AA$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB2" s="3">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^AB$1),AB$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC2" s="3">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^AC$1),AC$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD2" s="3">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^AD$1),AD$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^AE$1),AE$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^AF$1),AF$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AG2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^AG$1),AG$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH2" s="2">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($B2,2^AH$1),AH$1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S5" s="1">
+        <f t="shared" ref="S5:AF5" si="2">T5+1</f>
+        <v>15</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>AH5+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="W9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1092,67 +1287,67 @@
         <v>0</v>
       </c>
       <c r="V2" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^V$1),V$1)</f>
+        <f t="shared" ref="V2:AK3" si="2">_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^V$1),V$1)</f>
         <v>0</v>
       </c>
       <c r="W2" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^W$1),W$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X2" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^X$1),X$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y2" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^Y$1),Y$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z2" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^Z$1),Z$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA2" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AA$1),AA$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB2" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AB$1),AB$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC2" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AC$1),AC$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD2" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AD$1),AD$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE2" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AE$1),AE$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF2" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AF$1),AF$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG2" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AG$1),AG$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH2" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AH$1),AH$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AI2" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AI$1),AI$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ2" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AJ$1),AJ$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK2" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E2,2^AK$1),AK$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL2" s="13" t="str">
@@ -1277,67 +1472,67 @@
         <v>1</v>
       </c>
       <c r="V3" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^V$1),V$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W3" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^W$1),W$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X3" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^X$1),X$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y3" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^Y$1),Y$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z3" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^Z$1),Z$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA3" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AA$1),AA$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB3" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AB$1),AB$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC3" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AC$1),AC$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD3" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AD$1),AD$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE3" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AE$1),AE$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF3" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AF$1),AF$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG3" s="10">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AG$1),AG$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH3" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AH$1),AH$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AI3" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AI$1),AI$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ3" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AJ$1),AJ$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK3" s="9">
-        <f>_xlfn.BITRSHIFT(_xlfn.BITAND($E3,2^AK$1),AK$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL3" s="13" t="str">
@@ -1386,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE62A08E-985E-423F-BCB5-01B879C6F607}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+    <sheetView zoomScale="157" workbookViewId="0">
       <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
@@ -1585,4 +1780,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5370C5-6454-483A-BBF3-2D720BC51965}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="str">
+        <f>SUBSTITUTE($A2, " ", "")</f>
+        <v>0001000001010000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="str">
+        <f>SUBSTITUTE($A3, " ", "")</f>
+        <v>1011011111010010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="str">
+        <f>SUBSTITUTE($A4, " ", "")</f>
+        <v>0100000000000100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="str">
+        <f>SUBSTITUTE($A5, " ", "")</f>
+        <v>0100000010000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="str">
+        <f>SUBSTITUTE($A7, " ", "")</f>
+        <v>1110100111100100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="str">
+        <f>SUBSTITUTE($A8, " ", "")</f>
+        <v>1010100011100100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="str">
+        <f>SUBSTITUTE($A9, " ", "")</f>
+        <v>0100000000000101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>